--- a/Lancaster/Reporte_02_Q-Preliminar/MatrizQ_.xlsx
+++ b/Lancaster/Reporte_02_Q-Preliminar/MatrizQ_.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\Lancaster\Reporte_02_Q-Preliminar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1200"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -291,13 +296,7 @@
 Educación, Cultura y deportes del gobierno de Canarias. Dirección general de Ordenación e Innovación Educativa. Canarias. Recuperado de: http://www.gobiernodecanarias.org/educacion/3/Usrn/cep_granadilla/docs/medida.pdf</t>
   </si>
   <si>
-    <t>PMB07</t>
-  </si>
-  <si>
     <t>Resolver problemas que implican conversiones entre medidas de longitud del Sistema Internacional de Medidas y el Sistema Inglés</t>
-  </si>
-  <si>
-    <t>PMB08</t>
   </si>
   <si>
     <t>Franchi, L y Hernández, A. I. (2004). Tipología de errores en el área de geometría plana. Parte II. EDUCERE, la revista venezolana de educación. Vol. 8, Número, 25, pp. 196-204. 
@@ -307,9 +306,6 @@
   </si>
   <si>
     <t>Calcular el perímetro de triángulos o cuadriláteros</t>
-  </si>
-  <si>
-    <t>PMB09</t>
   </si>
   <si>
     <t>PMA15</t>
@@ -4946,6 +4942,42 @@
   </si>
   <si>
     <t>No. Item en aplicación Sandy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PMB09
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17 G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PMB08
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16 G</t>
+    </r>
+  </si>
+  <si>
+    <t>PMB07
+G</t>
   </si>
 </sst>
 </file>
@@ -5037,12 +5069,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5057,7 +5095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5094,6 +5132,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5155,7 +5196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5190,7 +5231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5401,8 +5442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5410,10 +5451,10 @@
     <col min="1" max="1" width="11.42578125" style="9"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="3.85546875" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" customWidth="1"/>
@@ -5430,9 +5471,9 @@
     <col min="23" max="23" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -5495,7 +5536,7 @@
         <v>5</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="W1" s="10" t="s">
         <v>2</v>
@@ -5521,7 +5562,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -5563,13 +5604,13 @@
         <v>4</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="408" x14ac:dyDescent="0.25">
@@ -5592,7 +5633,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -5634,13 +5675,13 @@
         <v>35</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="347.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5663,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -5705,13 +5746,13 @@
         <v>36</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="267.75" x14ac:dyDescent="0.25">
@@ -5734,7 +5775,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -5776,13 +5817,13 @@
         <v>39</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="306" x14ac:dyDescent="0.25">
@@ -5805,7 +5846,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -5847,13 +5888,13 @@
         <v>43</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="357" x14ac:dyDescent="0.25">
@@ -5873,10 +5914,10 @@
         <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -5921,10 +5962,10 @@
         <v>46</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="280.5" x14ac:dyDescent="0.25">
@@ -5947,7 +5988,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -5992,10 +6033,10 @@
         <v>52</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -6018,7 +6059,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -6060,13 +6101,13 @@
         <v>56</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="369.75" x14ac:dyDescent="0.25">
@@ -6089,7 +6130,7 @@
         <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -6128,16 +6169,16 @@
         <v>1</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -6160,7 +6201,7 @@
         <v>62</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -6205,10 +6246,10 @@
         <v>64</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="369.75" x14ac:dyDescent="0.25">
@@ -6273,13 +6314,13 @@
         <v>68</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="242.25" x14ac:dyDescent="0.25">
@@ -6302,7 +6343,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -6341,16 +6382,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="306" x14ac:dyDescent="0.25">
@@ -6412,16 +6453,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="306" x14ac:dyDescent="0.25">
@@ -6444,7 +6485,7 @@
         <v>76</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -6483,13 +6524,13 @@
         <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>77</v>
@@ -6499,8 +6540,8 @@
       <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>78</v>
+      <c r="B16" s="13" t="s">
+        <v>408</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -6512,10 +6553,10 @@
         <v>28</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -6554,24 +6595,24 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
+      <c r="B17" s="13" t="s">
+        <v>407</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
@@ -6583,10 +6624,10 @@
         <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -6625,24 +6666,24 @@
         <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>83</v>
+      <c r="B18" s="13" t="s">
+        <v>406</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
@@ -6654,10 +6695,10 @@
         <v>28</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -6696,16 +6737,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -7028,10 +7069,816 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.42578125" customWidth="1"/>
+    <col min="19" max="19" width="36.140625" customWidth="1"/>
+    <col min="20" max="20" width="53.85546875" customWidth="1"/>
+    <col min="21" max="21" width="67.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="293.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="357" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="280.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="306" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="331.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="318.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7059,7 +7906,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -7116,7 +7963,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>26</v>
@@ -7125,7 +7972,7 @@
         <v>5</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="X1" s="10" t="s">
         <v>2</v>
@@ -7136,22 +7983,22 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -7193,16 +8040,16 @@
         <v>0</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="408" x14ac:dyDescent="0.25">
@@ -7210,22 +8057,22 @@
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -7267,16 +8114,16 @@
         <v>0</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="344.25" x14ac:dyDescent="0.25">
@@ -7284,22 +8131,22 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -7341,16 +8188,16 @@
         <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="331.5" x14ac:dyDescent="0.25">
@@ -7358,23 +8205,23 @@
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -7415,16 +8262,16 @@
         <v>0</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
@@ -7432,23 +8279,23 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
@@ -7489,16 +8336,16 @@
         <v>0</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
@@ -7506,23 +8353,23 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
@@ -7563,16 +8410,16 @@
         <v>0</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="293.25" x14ac:dyDescent="0.25">
@@ -7580,23 +8427,23 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
@@ -7637,16 +8484,16 @@
         <v>0</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="242.25" x14ac:dyDescent="0.25">
@@ -7654,23 +8501,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
@@ -7711,16 +8558,16 @@
         <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="395.25" x14ac:dyDescent="0.25">
@@ -7728,73 +8575,73 @@
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="V10" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="331.5" x14ac:dyDescent="0.25">
@@ -7802,73 +8649,73 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="V11" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="395.25" x14ac:dyDescent="0.25">
@@ -7876,73 +8723,73 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="V12" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="344.25" x14ac:dyDescent="0.25">
@@ -7950,23 +8797,23 @@
         <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
@@ -8007,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="395.25" x14ac:dyDescent="0.25">
@@ -8024,22 +8871,22 @@
         <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -8081,16 +8928,16 @@
         <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
@@ -8098,23 +8945,23 @@
         <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
@@ -8155,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="216.75" x14ac:dyDescent="0.25">
@@ -8172,23 +9019,23 @@
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
@@ -8229,16 +9076,16 @@
         <v>0</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="331.5" x14ac:dyDescent="0.25">
@@ -8246,22 +9093,22 @@
         <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -8303,16 +9150,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="191.25" x14ac:dyDescent="0.25">
@@ -8320,22 +9167,22 @@
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -8377,16 +9224,16 @@
         <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="293.25" x14ac:dyDescent="0.25">
@@ -8394,22 +9241,22 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -8451,16 +9298,16 @@
         <v>0</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="280.5" x14ac:dyDescent="0.25">
@@ -8468,22 +9315,22 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -8525,16 +9372,16 @@
         <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="344.25" x14ac:dyDescent="0.25">
@@ -8542,22 +9389,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -8599,16 +9446,16 @@
         <v>0</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="382.5" x14ac:dyDescent="0.25">
@@ -8616,22 +9463,22 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -8673,16 +9520,16 @@
         <v>1</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="344.25" x14ac:dyDescent="0.25">
@@ -8690,22 +9537,22 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -8747,16 +9594,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -8783,810 +9630,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" customWidth="1"/>
-    <col min="14" max="16" width="3.85546875" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" customWidth="1"/>
-    <col min="18" max="18" width="31.42578125" customWidth="1"/>
-    <col min="19" max="19" width="36.140625" customWidth="1"/>
-    <col min="20" max="20" width="53.85546875" customWidth="1"/>
-    <col min="21" max="21" width="67.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="293.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="395.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="255" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="255" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="357" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="395.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="280.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="306" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="331.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="318.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>